--- a/assets_b/uploads/template/template.xlsx
+++ b/assets_b/uploads/template/template.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,107 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Fullname</t>
-  </si>
-  <si>
-    <t>birthPlace</t>
-  </si>
-  <si>
-    <t>BirthDate</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
-    <t>Dependent</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>DepartmentDesc</t>
-  </si>
-  <si>
-    <t>npwpNo</t>
-  </si>
-  <si>
-    <t>StartPayroll</t>
-  </si>
-  <si>
-    <t>EndPayroll</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Transportasi</t>
-  </si>
-  <si>
-    <t>UangMakan</t>
-  </si>
-  <si>
-    <t>UangDriver</t>
-  </si>
-  <si>
-    <t>THR</t>
-  </si>
-  <si>
-    <t>Hutang</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Overtime</t>
-  </si>
-  <si>
-    <t>JHTCompany</t>
-  </si>
-  <si>
-    <t>JHTEmployee</t>
-  </si>
-  <si>
-    <t>JKKCompany</t>
-  </si>
-  <si>
-    <t>JKKEmployee</t>
-  </si>
-  <si>
-    <t>JKMCompany</t>
-  </si>
-  <si>
-    <t>JKMEmployee</t>
-  </si>
-  <si>
-    <t>JPKCompany</t>
-  </si>
-  <si>
-    <t>JPKEmployee</t>
-  </si>
-  <si>
-    <t>JPNCompany</t>
-  </si>
-  <si>
-    <t>JPNEmployee</t>
-  </si>
-  <si>
-    <t>PPH</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,105 +380,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="13.9" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
